--- a/proportion-table-in-excel.xlsx
+++ b/proportion-table-in-excel.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E1F588-2629-4D68-98BE-B078E94FE508}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A251D6-E0E4-48FC-91E4-9274B30ABF0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-13" windowWidth="25786" windowHeight="13986" xr2:uid="{D0112527-70CD-4A32-9222-8C61903591BC}"/>
+    <workbookView xWindow="-25693" yWindow="-13" windowWidth="25786" windowHeight="14586" xr2:uid="{D0112527-70CD-4A32-9222-8C61903591BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -80,6 +83,18 @@
   <si>
     <t>no</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of id</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
 </sst>
 </file>
 
@@ -114,9 +129,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,6 +152,8334 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="44578.73622013889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="546" xr:uid="{9EDF6436-C75E-4BA9-9EE9-55F025718A9D}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="id" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="546"/>
+    </cacheField>
+    <cacheField name="price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25000" maxValue="190000"/>
+    </cacheField>
+    <cacheField name="lotsize" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1650" maxValue="16200"/>
+    </cacheField>
+    <cacheField name="bedrooms" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
+    </cacheField>
+    <cacheField name="bathrms" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+    </cacheField>
+    <cacheField name="stories" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+    </cacheField>
+    <cacheField name="driveway" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="recroom" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="fullbase" numFmtId="0">
+      <sharedItems count="2">
+        <s v="yes"/>
+        <s v="no"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="gashw" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="airco" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="garagepl" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
+    </cacheField>
+    <cacheField name="prefarea" numFmtId="0">
+      <sharedItems count="2">
+        <s v="no"/>
+        <s v="yes"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="546">
+  <r>
+    <n v="1"/>
+    <n v="42000"/>
+    <n v="5850"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="38500"/>
+    <n v="4000"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="49500"/>
+    <n v="3060"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="60500"/>
+    <n v="6650"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="61000"/>
+    <n v="6360"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="66000"/>
+    <n v="4160"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="66000"/>
+    <n v="3880"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="69000"/>
+    <n v="4160"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="83800"/>
+    <n v="4800"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="88500"/>
+    <n v="5500"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="90000"/>
+    <n v="7200"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="30500"/>
+    <n v="3000"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <n v="27000"/>
+    <n v="1700"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="36000"/>
+    <n v="2880"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="37000"/>
+    <n v="3600"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <n v="37900"/>
+    <n v="3185"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="40500"/>
+    <n v="3300"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <n v="40750"/>
+    <n v="5200"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <n v="45000"/>
+    <n v="3450"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <n v="45000"/>
+    <n v="3986"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <n v="48500"/>
+    <n v="4785"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <n v="65900"/>
+    <n v="4510"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <n v="37900"/>
+    <n v="4000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <n v="38000"/>
+    <n v="3934"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <n v="42000"/>
+    <n v="4960"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <n v="42300"/>
+    <n v="3000"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <n v="43500"/>
+    <n v="3800"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <n v="44000"/>
+    <n v="4960"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <n v="44500"/>
+    <n v="3000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <n v="44900"/>
+    <n v="4500"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <n v="45000"/>
+    <n v="3500"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <n v="48000"/>
+    <n v="3500"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <n v="49000"/>
+    <n v="4000"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <n v="51500"/>
+    <n v="4500"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <n v="61000"/>
+    <n v="6360"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <n v="61000"/>
+    <n v="4500"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <n v="61700"/>
+    <n v="4032"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <n v="67000"/>
+    <n v="5170"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <n v="82000"/>
+    <n v="5400"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <n v="54500"/>
+    <n v="3150"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <n v="66500"/>
+    <n v="3745"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <n v="70000"/>
+    <n v="4520"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <n v="82000"/>
+    <n v="4640"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <n v="92000"/>
+    <n v="8580"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <n v="38000"/>
+    <n v="2000"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <n v="44000"/>
+    <n v="2160"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <n v="41000"/>
+    <n v="3040"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <n v="43000"/>
+    <n v="3090"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <n v="48000"/>
+    <n v="4960"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <n v="54800"/>
+    <n v="3350"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <n v="55000"/>
+    <n v="5300"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <n v="57000"/>
+    <n v="4100"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <n v="68000"/>
+    <n v="9166"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <n v="95000"/>
+    <n v="4040"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <n v="38000"/>
+    <n v="3630"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <n v="25000"/>
+    <n v="3620"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <n v="25245"/>
+    <n v="2400"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <n v="56000"/>
+    <n v="7260"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <n v="35500"/>
+    <n v="4400"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <n v="30000"/>
+    <n v="2400"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <n v="48000"/>
+    <n v="4120"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <n v="48000"/>
+    <n v="4750"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <n v="52000"/>
+    <n v="4280"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <n v="54000"/>
+    <n v="4820"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <n v="56000"/>
+    <n v="5500"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <n v="60000"/>
+    <n v="5500"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <n v="60000"/>
+    <n v="5040"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <n v="67000"/>
+    <n v="6000"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <n v="47000"/>
+    <n v="2500"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <n v="70000"/>
+    <n v="4095"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <n v="45000"/>
+    <n v="4095"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <n v="51000"/>
+    <n v="3150"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <n v="32500"/>
+    <n v="1836"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <n v="34000"/>
+    <n v="2475"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <n v="35000"/>
+    <n v="3210"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <n v="36000"/>
+    <n v="3180"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <n v="45000"/>
+    <n v="1650"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <n v="47000"/>
+    <n v="3180"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <n v="55000"/>
+    <n v="3180"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <n v="63900"/>
+    <n v="6360"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <n v="50000"/>
+    <n v="4240"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <n v="35000"/>
+    <n v="3240"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <n v="50000"/>
+    <n v="3650"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <n v="43000"/>
+    <n v="3240"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <n v="55500"/>
+    <n v="3780"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <n v="57000"/>
+    <n v="6480"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <n v="60000"/>
+    <n v="5850"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <n v="78000"/>
+    <n v="3150"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <n v="35000"/>
+    <n v="3000"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <n v="44000"/>
+    <n v="3090"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <n v="47000"/>
+    <n v="6060"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <n v="58000"/>
+    <n v="5900"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <n v="163000"/>
+    <n v="7420"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <n v="128000"/>
+    <n v="8500"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <n v="123500"/>
+    <n v="8050"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <n v="39000"/>
+    <n v="6800"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <n v="53900"/>
+    <n v="8250"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <n v="59900"/>
+    <n v="8250"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <n v="35000"/>
+    <n v="3500"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <n v="43000"/>
+    <n v="2835"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <n v="57000"/>
+    <n v="4500"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <n v="79000"/>
+    <n v="3300"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <n v="125000"/>
+    <n v="4320"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <n v="132000"/>
+    <n v="3500"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <n v="58000"/>
+    <n v="4992"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <n v="43000"/>
+    <n v="4600"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <n v="48000"/>
+    <n v="3720"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <n v="58500"/>
+    <n v="3680"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <n v="73000"/>
+    <n v="3000"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <n v="63500"/>
+    <n v="3750"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="111"/>
+    <n v="43000"/>
+    <n v="5076"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <n v="46500"/>
+    <n v="4500"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="113"/>
+    <n v="92000"/>
+    <n v="5000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="114"/>
+    <n v="75000"/>
+    <n v="4260"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <n v="75000"/>
+    <n v="6540"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="116"/>
+    <n v="85000"/>
+    <n v="3700"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="117"/>
+    <n v="93000"/>
+    <n v="3760"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="118"/>
+    <n v="94500"/>
+    <n v="4000"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="119"/>
+    <n v="106500"/>
+    <n v="4300"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <n v="116000"/>
+    <n v="6840"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="121"/>
+    <n v="61500"/>
+    <n v="4400"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="122"/>
+    <n v="80000"/>
+    <n v="10500"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="123"/>
+    <n v="37000"/>
+    <n v="4400"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="124"/>
+    <n v="59500"/>
+    <n v="4840"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="125"/>
+    <n v="70000"/>
+    <n v="4120"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="126"/>
+    <n v="95000"/>
+    <n v="4260"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="127"/>
+    <n v="117000"/>
+    <n v="5960"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="128"/>
+    <n v="122500"/>
+    <n v="8800"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="129"/>
+    <n v="123500"/>
+    <n v="4560"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="130"/>
+    <n v="127000"/>
+    <n v="4600"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="131"/>
+    <n v="35000"/>
+    <n v="4840"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="132"/>
+    <n v="44500"/>
+    <n v="3850"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="133"/>
+    <n v="49900"/>
+    <n v="4900"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="134"/>
+    <n v="50500"/>
+    <n v="3850"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="135"/>
+    <n v="65000"/>
+    <n v="3760"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="136"/>
+    <n v="90000"/>
+    <n v="6000"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="137"/>
+    <n v="46000"/>
+    <n v="4370"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="138"/>
+    <n v="35000"/>
+    <n v="7700"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="139"/>
+    <n v="26500"/>
+    <n v="2990"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="140"/>
+    <n v="43000"/>
+    <n v="3750"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="141"/>
+    <n v="56000"/>
+    <n v="3000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="142"/>
+    <n v="40000"/>
+    <n v="2650"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="143"/>
+    <n v="51000"/>
+    <n v="4500"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="144"/>
+    <n v="51000"/>
+    <n v="4500"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="145"/>
+    <n v="57250"/>
+    <n v="4500"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="146"/>
+    <n v="44000"/>
+    <n v="4500"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="147"/>
+    <n v="61000"/>
+    <n v="2175"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="148"/>
+    <n v="62000"/>
+    <n v="4500"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="149"/>
+    <n v="80000"/>
+    <n v="4800"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="3"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="150"/>
+    <n v="50000"/>
+    <n v="4600"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="151"/>
+    <n v="59900"/>
+    <n v="3450"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="152"/>
+    <n v="35500"/>
+    <n v="3000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="153"/>
+    <n v="37000"/>
+    <n v="3600"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="154"/>
+    <n v="42000"/>
+    <n v="3600"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="155"/>
+    <n v="48000"/>
+    <n v="3750"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="156"/>
+    <n v="60000"/>
+    <n v="2610"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="157"/>
+    <n v="60000"/>
+    <n v="2953"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="158"/>
+    <n v="60000"/>
+    <n v="2747"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="159"/>
+    <n v="62000"/>
+    <n v="1905"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="160"/>
+    <n v="63000"/>
+    <n v="3968"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="161"/>
+    <n v="63900"/>
+    <n v="3162"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="162"/>
+    <n v="130000"/>
+    <n v="6000"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="163"/>
+    <n v="25000"/>
+    <n v="2910"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="164"/>
+    <n v="50000"/>
+    <n v="2135"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="165"/>
+    <n v="52900"/>
+    <n v="3120"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="166"/>
+    <n v="62000"/>
+    <n v="4075"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="167"/>
+    <n v="73500"/>
+    <n v="3410"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="168"/>
+    <n v="38000"/>
+    <n v="2800"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="169"/>
+    <n v="46000"/>
+    <n v="2684"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="170"/>
+    <n v="48000"/>
+    <n v="3100"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="171"/>
+    <n v="52500"/>
+    <n v="3630"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="172"/>
+    <n v="32000"/>
+    <n v="1950"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="173"/>
+    <n v="38000"/>
+    <n v="2430"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="174"/>
+    <n v="46000"/>
+    <n v="4320"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="175"/>
+    <n v="50000"/>
+    <n v="3036"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="176"/>
+    <n v="57500"/>
+    <n v="3630"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="177"/>
+    <n v="70000"/>
+    <n v="5400"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="178"/>
+    <n v="69900"/>
+    <n v="3420"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="179"/>
+    <n v="74500"/>
+    <n v="3180"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="180"/>
+    <n v="42000"/>
+    <n v="3660"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="181"/>
+    <n v="60000"/>
+    <n v="4410"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="182"/>
+    <n v="50000"/>
+    <n v="3990"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="183"/>
+    <n v="58000"/>
+    <n v="4340"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="184"/>
+    <n v="63900"/>
+    <n v="3510"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="185"/>
+    <n v="28000"/>
+    <n v="3420"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="186"/>
+    <n v="54000"/>
+    <n v="3420"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="187"/>
+    <n v="44700"/>
+    <n v="5495"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="188"/>
+    <n v="47000"/>
+    <n v="3480"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="189"/>
+    <n v="50000"/>
+    <n v="7424"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="190"/>
+    <n v="57250"/>
+    <n v="3460"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="191"/>
+    <n v="67000"/>
+    <n v="3630"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="192"/>
+    <n v="52500"/>
+    <n v="3630"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="193"/>
+    <n v="42000"/>
+    <n v="3480"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="194"/>
+    <n v="57500"/>
+    <n v="3460"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="195"/>
+    <n v="33000"/>
+    <n v="3180"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="196"/>
+    <n v="34400"/>
+    <n v="3635"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="197"/>
+    <n v="40000"/>
+    <n v="3960"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="198"/>
+    <n v="40500"/>
+    <n v="4350"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="199"/>
+    <n v="46500"/>
+    <n v="3930"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="200"/>
+    <n v="52000"/>
+    <n v="3570"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="201"/>
+    <n v="53000"/>
+    <n v="3600"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="202"/>
+    <n v="53900"/>
+    <n v="2520"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="203"/>
+    <n v="50000"/>
+    <n v="3480"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="204"/>
+    <n v="55500"/>
+    <n v="3180"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="205"/>
+    <n v="56000"/>
+    <n v="3290"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="206"/>
+    <n v="60000"/>
+    <n v="4000"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="207"/>
+    <n v="60000"/>
+    <n v="2325"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="208"/>
+    <n v="69500"/>
+    <n v="4350"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="209"/>
+    <n v="72000"/>
+    <n v="3540"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="210"/>
+    <n v="92500"/>
+    <n v="3960"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="211"/>
+    <n v="40500"/>
+    <n v="2640"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="212"/>
+    <n v="42000"/>
+    <n v="2700"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="213"/>
+    <n v="47900"/>
+    <n v="2700"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="214"/>
+    <n v="52000"/>
+    <n v="3180"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="215"/>
+    <n v="62000"/>
+    <n v="3500"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="216"/>
+    <n v="41000"/>
+    <n v="3630"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="217"/>
+    <n v="138300"/>
+    <n v="6000"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="218"/>
+    <n v="42000"/>
+    <n v="3150"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="219"/>
+    <n v="47000"/>
+    <n v="3792"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="220"/>
+    <n v="64500"/>
+    <n v="3510"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="221"/>
+    <n v="46000"/>
+    <n v="3120"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="222"/>
+    <n v="58000"/>
+    <n v="3000"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="223"/>
+    <n v="70100"/>
+    <n v="4200"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="224"/>
+    <n v="78500"/>
+    <n v="2817"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="225"/>
+    <n v="87250"/>
+    <n v="3240"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="226"/>
+    <n v="70800"/>
+    <n v="2800"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="227"/>
+    <n v="56000"/>
+    <n v="3816"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="228"/>
+    <n v="48000"/>
+    <n v="3185"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="229"/>
+    <n v="68000"/>
+    <n v="6321"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="230"/>
+    <n v="79000"/>
+    <n v="3650"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="231"/>
+    <n v="80000"/>
+    <n v="4700"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="232"/>
+    <n v="87000"/>
+    <n v="6615"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="233"/>
+    <n v="25000"/>
+    <n v="3850"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="234"/>
+    <n v="32500"/>
+    <n v="3970"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="235"/>
+    <n v="36000"/>
+    <n v="3000"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="236"/>
+    <n v="42500"/>
+    <n v="4352"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="237"/>
+    <n v="43000"/>
+    <n v="3630"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="238"/>
+    <n v="50000"/>
+    <n v="3600"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="239"/>
+    <n v="26000"/>
+    <n v="3000"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="240"/>
+    <n v="30000"/>
+    <n v="3000"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="241"/>
+    <n v="34000"/>
+    <n v="2787"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="242"/>
+    <n v="52000"/>
+    <n v="3000"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="243"/>
+    <n v="70000"/>
+    <n v="4770"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="244"/>
+    <n v="27000"/>
+    <n v="3649"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="245"/>
+    <n v="32500"/>
+    <n v="3970"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="246"/>
+    <n v="37200"/>
+    <n v="2910"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="247"/>
+    <n v="38000"/>
+    <n v="3480"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="248"/>
+    <n v="42000"/>
+    <n v="6615"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="249"/>
+    <n v="44500"/>
+    <n v="3500"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="250"/>
+    <n v="45000"/>
+    <n v="3450"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="251"/>
+    <n v="48500"/>
+    <n v="3450"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="252"/>
+    <n v="52000"/>
+    <n v="3520"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="253"/>
+    <n v="53900"/>
+    <n v="6930"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="254"/>
+    <n v="60000"/>
+    <n v="4600"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="255"/>
+    <n v="61000"/>
+    <n v="4360"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="256"/>
+    <n v="64500"/>
+    <n v="3450"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="257"/>
+    <n v="71000"/>
+    <n v="4410"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="258"/>
+    <n v="75500"/>
+    <n v="4600"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="259"/>
+    <n v="33500"/>
+    <n v="3640"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="260"/>
+    <n v="41000"/>
+    <n v="6000"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="261"/>
+    <n v="41000"/>
+    <n v="5400"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="262"/>
+    <n v="46200"/>
+    <n v="3640"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="263"/>
+    <n v="48500"/>
+    <n v="3640"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="264"/>
+    <n v="48900"/>
+    <n v="4040"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="265"/>
+    <n v="50000"/>
+    <n v="3640"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="266"/>
+    <n v="51000"/>
+    <n v="3640"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="267"/>
+    <n v="52500"/>
+    <n v="5640"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="268"/>
+    <n v="52500"/>
+    <n v="3600"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="269"/>
+    <n v="54000"/>
+    <n v="3600"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="270"/>
+    <n v="59000"/>
+    <n v="4632"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="271"/>
+    <n v="60000"/>
+    <n v="3640"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="272"/>
+    <n v="63000"/>
+    <n v="4900"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="273"/>
+    <n v="64000"/>
+    <n v="4510"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="274"/>
+    <n v="64900"/>
+    <n v="4100"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="275"/>
+    <n v="65000"/>
+    <n v="3640"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="276"/>
+    <n v="66000"/>
+    <n v="5680"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="277"/>
+    <n v="70000"/>
+    <n v="6300"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="278"/>
+    <n v="65500"/>
+    <n v="4000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="279"/>
+    <n v="57000"/>
+    <n v="3960"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="280"/>
+    <n v="52000"/>
+    <n v="5960"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="281"/>
+    <n v="54000"/>
+    <n v="5830"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="282"/>
+    <n v="74500"/>
+    <n v="4500"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="283"/>
+    <n v="90000"/>
+    <n v="4100"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="284"/>
+    <n v="45000"/>
+    <n v="6750"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="285"/>
+    <n v="45000"/>
+    <n v="9000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="286"/>
+    <n v="65000"/>
+    <n v="2550"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="287"/>
+    <n v="55000"/>
+    <n v="7152"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="288"/>
+    <n v="62000"/>
+    <n v="6450"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="289"/>
+    <n v="30000"/>
+    <n v="3360"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="290"/>
+    <n v="34000"/>
+    <n v="3264"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="291"/>
+    <n v="38000"/>
+    <n v="4000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="292"/>
+    <n v="39000"/>
+    <n v="4000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="293"/>
+    <n v="45000"/>
+    <n v="3069"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="294"/>
+    <n v="47000"/>
+    <n v="4040"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="295"/>
+    <n v="47500"/>
+    <n v="4040"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="296"/>
+    <n v="49000"/>
+    <n v="3185"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="297"/>
+    <n v="50000"/>
+    <n v="5900"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="298"/>
+    <n v="50000"/>
+    <n v="3120"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="299"/>
+    <n v="52900"/>
+    <n v="5450"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="300"/>
+    <n v="53000"/>
+    <n v="4040"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="301"/>
+    <n v="55000"/>
+    <n v="4080"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="302"/>
+    <n v="56000"/>
+    <n v="8080"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="303"/>
+    <n v="58500"/>
+    <n v="4040"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="304"/>
+    <n v="59500"/>
+    <n v="4080"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="305"/>
+    <n v="60000"/>
+    <n v="5800"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="306"/>
+    <n v="64000"/>
+    <n v="5885"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="307"/>
+    <n v="67000"/>
+    <n v="9667"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="308"/>
+    <n v="68100"/>
+    <n v="3420"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="309"/>
+    <n v="70000"/>
+    <n v="5800"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="310"/>
+    <n v="72000"/>
+    <n v="7600"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="311"/>
+    <n v="57500"/>
+    <n v="5400"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="312"/>
+    <n v="69900"/>
+    <n v="4995"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="313"/>
+    <n v="70000"/>
+    <n v="3000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="314"/>
+    <n v="75000"/>
+    <n v="5500"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="315"/>
+    <n v="76900"/>
+    <n v="6450"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="316"/>
+    <n v="78000"/>
+    <n v="6210"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="317"/>
+    <n v="80000"/>
+    <n v="5000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="318"/>
+    <n v="82000"/>
+    <n v="5000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="319"/>
+    <n v="83000"/>
+    <n v="5828"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="320"/>
+    <n v="83000"/>
+    <n v="5200"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="321"/>
+    <n v="83900"/>
+    <n v="5500"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="322"/>
+    <n v="88500"/>
+    <n v="6350"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="323"/>
+    <n v="93000"/>
+    <n v="8250"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="324"/>
+    <n v="98000"/>
+    <n v="6000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="325"/>
+    <n v="98500"/>
+    <n v="7700"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="326"/>
+    <n v="99000"/>
+    <n v="8880"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="327"/>
+    <n v="101000"/>
+    <n v="8880"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="328"/>
+    <n v="110000"/>
+    <n v="6480"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="329"/>
+    <n v="115442"/>
+    <n v="7000"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="330"/>
+    <n v="120000"/>
+    <n v="8875"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="331"/>
+    <n v="124000"/>
+    <n v="7155"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="332"/>
+    <n v="175000"/>
+    <n v="8960"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="333"/>
+    <n v="50000"/>
+    <n v="7350"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="334"/>
+    <n v="55000"/>
+    <n v="3850"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="335"/>
+    <n v="60000"/>
+    <n v="7000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="336"/>
+    <n v="61000"/>
+    <n v="7770"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="337"/>
+    <n v="106000"/>
+    <n v="7440"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="338"/>
+    <n v="155000"/>
+    <n v="7500"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="339"/>
+    <n v="141000"/>
+    <n v="8100"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="340"/>
+    <n v="62500"/>
+    <n v="3900"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="341"/>
+    <n v="70000"/>
+    <n v="2970"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="342"/>
+    <n v="73000"/>
+    <n v="3000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="343"/>
+    <n v="80000"/>
+    <n v="10500"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="344"/>
+    <n v="80000"/>
+    <n v="5500"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="345"/>
+    <n v="88000"/>
+    <n v="4500"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="346"/>
+    <n v="49000"/>
+    <n v="3850"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="347"/>
+    <n v="52000"/>
+    <n v="4130"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="348"/>
+    <n v="59500"/>
+    <n v="4046"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="349"/>
+    <n v="60000"/>
+    <n v="4079"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="350"/>
+    <n v="64000"/>
+    <n v="4000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="351"/>
+    <n v="64500"/>
+    <n v="9860"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="352"/>
+    <n v="68500"/>
+    <n v="7000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="353"/>
+    <n v="78500"/>
+    <n v="7980"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="354"/>
+    <n v="86000"/>
+    <n v="6800"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="355"/>
+    <n v="86900"/>
+    <n v="4300"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="356"/>
+    <n v="75000"/>
+    <n v="10269"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="357"/>
+    <n v="78000"/>
+    <n v="6100"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="358"/>
+    <n v="95000"/>
+    <n v="6420"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="359"/>
+    <n v="97000"/>
+    <n v="12090"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="360"/>
+    <n v="107000"/>
+    <n v="6600"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="361"/>
+    <n v="130000"/>
+    <n v="6600"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="362"/>
+    <n v="145000"/>
+    <n v="8580"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="363"/>
+    <n v="175000"/>
+    <n v="9960"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="364"/>
+    <n v="72000"/>
+    <n v="10700"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="365"/>
+    <n v="84900"/>
+    <n v="15600"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="366"/>
+    <n v="99000"/>
+    <n v="13200"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="367"/>
+    <n v="114000"/>
+    <n v="9000"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="368"/>
+    <n v="120000"/>
+    <n v="7950"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="369"/>
+    <n v="145000"/>
+    <n v="16200"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="370"/>
+    <n v="79000"/>
+    <n v="6100"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="371"/>
+    <n v="82000"/>
+    <n v="6360"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="372"/>
+    <n v="85000"/>
+    <n v="6420"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="373"/>
+    <n v="100500"/>
+    <n v="6360"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="374"/>
+    <n v="122000"/>
+    <n v="6540"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="375"/>
+    <n v="126500"/>
+    <n v="6420"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="376"/>
+    <n v="133000"/>
+    <n v="6550"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="377"/>
+    <n v="140000"/>
+    <n v="5750"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="378"/>
+    <n v="190000"/>
+    <n v="7420"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="379"/>
+    <n v="84000"/>
+    <n v="7160"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="380"/>
+    <n v="97000"/>
+    <n v="4000"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="381"/>
+    <n v="103500"/>
+    <n v="9000"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="382"/>
+    <n v="112500"/>
+    <n v="6550"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="383"/>
+    <n v="140000"/>
+    <n v="13200"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="384"/>
+    <n v="74700"/>
+    <n v="7085"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="385"/>
+    <n v="78000"/>
+    <n v="6600"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="386"/>
+    <n v="78900"/>
+    <n v="6900"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="387"/>
+    <n v="83900"/>
+    <n v="11460"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="388"/>
+    <n v="85000"/>
+    <n v="7020"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="389"/>
+    <n v="85000"/>
+    <n v="6540"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="390"/>
+    <n v="86000"/>
+    <n v="8000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="391"/>
+    <n v="86900"/>
+    <n v="9620"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="392"/>
+    <n v="94500"/>
+    <n v="10500"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="393"/>
+    <n v="96000"/>
+    <n v="5020"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="394"/>
+    <n v="106000"/>
+    <n v="7440"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="395"/>
+    <n v="72000"/>
+    <n v="6600"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="396"/>
+    <n v="74500"/>
+    <n v="7200"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="397"/>
+    <n v="77000"/>
+    <n v="6710"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="398"/>
+    <n v="80750"/>
+    <n v="6660"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="399"/>
+    <n v="82900"/>
+    <n v="7000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="400"/>
+    <n v="85000"/>
+    <n v="7231"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="401"/>
+    <n v="92500"/>
+    <n v="7410"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="402"/>
+    <n v="76000"/>
+    <n v="7800"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="403"/>
+    <n v="77500"/>
+    <n v="6825"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="404"/>
+    <n v="80000"/>
+    <n v="6360"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="405"/>
+    <n v="80000"/>
+    <n v="6600"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="406"/>
+    <n v="86000"/>
+    <n v="6900"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="407"/>
+    <n v="87000"/>
+    <n v="6600"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="408"/>
+    <n v="87500"/>
+    <n v="6420"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="409"/>
+    <n v="89000"/>
+    <n v="6600"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="410"/>
+    <n v="89900"/>
+    <n v="6600"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="411"/>
+    <n v="90000"/>
+    <n v="9000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="412"/>
+    <n v="95000"/>
+    <n v="6500"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="413"/>
+    <n v="112000"/>
+    <n v="6360"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="414"/>
+    <n v="31900"/>
+    <n v="5300"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="415"/>
+    <n v="52000"/>
+    <n v="2850"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="416"/>
+    <n v="90000"/>
+    <n v="6400"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="417"/>
+    <n v="100000"/>
+    <n v="11175"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="418"/>
+    <n v="91700"/>
+    <n v="6750"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="419"/>
+    <n v="174500"/>
+    <n v="7500"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="420"/>
+    <n v="94700"/>
+    <n v="6000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="421"/>
+    <n v="68000"/>
+    <n v="10240"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="422"/>
+    <n v="80000"/>
+    <n v="5136"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="423"/>
+    <n v="61100"/>
+    <n v="3400"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="424"/>
+    <n v="62900"/>
+    <n v="2880"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="425"/>
+    <n v="65500"/>
+    <n v="3840"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="426"/>
+    <n v="66000"/>
+    <n v="2870"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="427"/>
+    <n v="49500"/>
+    <n v="5320"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="428"/>
+    <n v="50000"/>
+    <n v="3512"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="429"/>
+    <n v="53500"/>
+    <n v="3480"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="430"/>
+    <n v="58550"/>
+    <n v="3600"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="431"/>
+    <n v="64500"/>
+    <n v="3520"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="432"/>
+    <n v="65000"/>
+    <n v="5320"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="433"/>
+    <n v="69000"/>
+    <n v="6040"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="434"/>
+    <n v="73000"/>
+    <n v="11410"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="435"/>
+    <n v="75000"/>
+    <n v="8400"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="436"/>
+    <n v="75000"/>
+    <n v="5300"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="437"/>
+    <n v="132000"/>
+    <n v="7800"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="438"/>
+    <n v="60000"/>
+    <n v="3520"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="439"/>
+    <n v="65000"/>
+    <n v="5360"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="440"/>
+    <n v="69000"/>
+    <n v="6862"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="441"/>
+    <n v="51900"/>
+    <n v="3520"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="442"/>
+    <n v="57000"/>
+    <n v="4050"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="443"/>
+    <n v="65000"/>
+    <n v="3520"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="444"/>
+    <n v="79500"/>
+    <n v="4400"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="445"/>
+    <n v="72500"/>
+    <n v="5720"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="446"/>
+    <n v="104900"/>
+    <n v="11440"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="447"/>
+    <n v="114900"/>
+    <n v="7482"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="448"/>
+    <n v="120000"/>
+    <n v="5500"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="449"/>
+    <n v="58000"/>
+    <n v="4320"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="450"/>
+    <n v="67000"/>
+    <n v="5400"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="451"/>
+    <n v="67000"/>
+    <n v="4320"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="452"/>
+    <n v="69000"/>
+    <n v="4815"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="453"/>
+    <n v="73000"/>
+    <n v="6100"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="454"/>
+    <n v="73500"/>
+    <n v="7980"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="455"/>
+    <n v="74900"/>
+    <n v="6050"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="456"/>
+    <n v="75000"/>
+    <n v="3800"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="457"/>
+    <n v="79500"/>
+    <n v="5400"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="458"/>
+    <n v="120900"/>
+    <n v="6000"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="459"/>
+    <n v="44555"/>
+    <n v="2398"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="460"/>
+    <n v="47000"/>
+    <n v="2145"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="461"/>
+    <n v="47600"/>
+    <n v="2145"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="462"/>
+    <n v="49000"/>
+    <n v="2145"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="463"/>
+    <n v="49000"/>
+    <n v="2610"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="464"/>
+    <n v="49000"/>
+    <n v="1950"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="465"/>
+    <n v="49500"/>
+    <n v="2145"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="466"/>
+    <n v="52000"/>
+    <n v="2275"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="467"/>
+    <n v="54000"/>
+    <n v="2856"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="468"/>
+    <n v="55000"/>
+    <n v="2015"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="469"/>
+    <n v="55000"/>
+    <n v="2176"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="470"/>
+    <n v="56000"/>
+    <n v="2145"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="471"/>
+    <n v="60000"/>
+    <n v="2145"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="472"/>
+    <n v="60500"/>
+    <n v="2787"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="473"/>
+    <n v="50000"/>
+    <n v="9500"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="474"/>
+    <n v="64900"/>
+    <n v="4990"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="475"/>
+    <n v="93000"/>
+    <n v="6670"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="476"/>
+    <n v="85000"/>
+    <n v="6254"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="477"/>
+    <n v="61500"/>
+    <n v="10360"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="478"/>
+    <n v="88500"/>
+    <n v="5500"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="479"/>
+    <n v="88000"/>
+    <n v="5450"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="480"/>
+    <n v="89000"/>
+    <n v="5500"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="481"/>
+    <n v="89500"/>
+    <n v="6000"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="482"/>
+    <n v="95000"/>
+    <n v="5700"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="483"/>
+    <n v="95500"/>
+    <n v="6600"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="484"/>
+    <n v="51500"/>
+    <n v="4000"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="485"/>
+    <n v="62900"/>
+    <n v="4880"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="486"/>
+    <n v="118500"/>
+    <n v="4880"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="487"/>
+    <n v="42900"/>
+    <n v="8050"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="488"/>
+    <n v="44100"/>
+    <n v="8100"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="489"/>
+    <n v="47000"/>
+    <n v="5880"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="490"/>
+    <n v="50000"/>
+    <n v="5880"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="491"/>
+    <n v="50000"/>
+    <n v="12944"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="492"/>
+    <n v="53000"/>
+    <n v="6020"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="493"/>
+    <n v="53000"/>
+    <n v="4050"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="494"/>
+    <n v="54000"/>
+    <n v="8400"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="495"/>
+    <n v="58500"/>
+    <n v="5600"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="496"/>
+    <n v="59000"/>
+    <n v="5985"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="497"/>
+    <n v="60000"/>
+    <n v="4500"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="498"/>
+    <n v="62900"/>
+    <n v="4920"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="499"/>
+    <n v="64000"/>
+    <n v="8250"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="500"/>
+    <n v="65000"/>
+    <n v="8400"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="501"/>
+    <n v="67900"/>
+    <n v="6440"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="502"/>
+    <n v="68500"/>
+    <n v="8100"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="503"/>
+    <n v="70000"/>
+    <n v="6720"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="504"/>
+    <n v="70500"/>
+    <n v="5948"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="505"/>
+    <n v="71500"/>
+    <n v="8150"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="506"/>
+    <n v="71900"/>
+    <n v="4800"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="507"/>
+    <n v="75000"/>
+    <n v="9800"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="508"/>
+    <n v="75000"/>
+    <n v="8520"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="509"/>
+    <n v="87000"/>
+    <n v="8372"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="510"/>
+    <n v="64000"/>
+    <n v="4040"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="511"/>
+    <n v="70000"/>
+    <n v="4646"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="512"/>
+    <n v="47500"/>
+    <n v="4775"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="513"/>
+    <n v="62600"/>
+    <n v="4950"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="514"/>
+    <n v="66000"/>
+    <n v="5010"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="515"/>
+    <n v="58900"/>
+    <n v="6060"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="0"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="516"/>
+    <n v="53000"/>
+    <n v="3584"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="517"/>
+    <n v="95000"/>
+    <n v="6000"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="518"/>
+    <n v="96500"/>
+    <n v="6000"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="519"/>
+    <n v="101000"/>
+    <n v="6240"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="520"/>
+    <n v="102000"/>
+    <n v="6000"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="521"/>
+    <n v="103000"/>
+    <n v="7680"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="522"/>
+    <n v="105000"/>
+    <n v="6000"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="523"/>
+    <n v="108000"/>
+    <n v="6000"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="524"/>
+    <n v="110000"/>
+    <n v="6000"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="525"/>
+    <n v="113000"/>
+    <n v="6000"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="526"/>
+    <n v="120000"/>
+    <n v="7475"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="527"/>
+    <n v="105000"/>
+    <n v="5150"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="528"/>
+    <n v="106000"/>
+    <n v="6325"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="529"/>
+    <n v="107500"/>
+    <n v="6000"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="530"/>
+    <n v="108000"/>
+    <n v="6000"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="531"/>
+    <n v="113750"/>
+    <n v="6000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="532"/>
+    <n v="120000"/>
+    <n v="7000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="533"/>
+    <n v="70000"/>
+    <n v="12900"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="534"/>
+    <n v="71000"/>
+    <n v="7686"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="535"/>
+    <n v="82000"/>
+    <n v="5000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="536"/>
+    <n v="82000"/>
+    <n v="5800"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="537"/>
+    <n v="82500"/>
+    <n v="6000"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="538"/>
+    <n v="83000"/>
+    <n v="4800"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="539"/>
+    <n v="84000"/>
+    <n v="6500"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="540"/>
+    <n v="85000"/>
+    <n v="7320"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="541"/>
+    <n v="85000"/>
+    <n v="6525"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="no"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="542"/>
+    <n v="91500"/>
+    <n v="4800"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="543"/>
+    <n v="94000"/>
+    <n v="6000"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="544"/>
+    <n v="103000"/>
+    <n v="6000"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="545"/>
+    <n v="105000"/>
+    <n v="6000"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="546"/>
+    <n v="105000"/>
+    <n v="6000"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
+    <x v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E435099-7B69-4B4D-B517-F9012D8F0748}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O3:R7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="12"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of id" fld="0" subtotal="count" showDataAs="percentOfRow" baseField="8" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,19 +8800,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9911DFB8-6759-488C-B502-759C83C6BDB4}">
-  <dimension ref="A1:M547"/>
+  <dimension ref="A1:R547"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.95"/>
   <cols>
     <col min="4" max="4" width="9.64453125" customWidth="1"/>
     <col min="7" max="7" width="8.87890625" customWidth="1"/>
+    <col min="15" max="15" width="12.203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.8203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.3203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.64453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.234375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.95">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.95">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +8860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.95">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.95">
       <c r="A2">
         <v>1</v>
       </c>
@@ -546,7 +8901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.95">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.95">
       <c r="A3">
         <v>2</v>
       </c>
@@ -586,8 +8941,14 @@
       <c r="M3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.95">
+      <c r="O3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.95">
       <c r="A4">
         <v>3</v>
       </c>
@@ -627,8 +8988,20 @@
       <c r="M4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.95">
+      <c r="O4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.95">
       <c r="A5">
         <v>4</v>
       </c>
@@ -668,8 +9041,20 @@
       <c r="M5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.95">
+      <c r="O5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.83661971830985915</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.16338028169014085</v>
+      </c>
+      <c r="R5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.95">
       <c r="A6">
         <v>5</v>
       </c>
@@ -709,8 +9094,20 @@
       <c r="M6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.95">
+      <c r="O6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.63350785340314131</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.36649214659685864</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.95">
       <c r="A7">
         <v>6</v>
       </c>
@@ -750,8 +9147,20 @@
       <c r="M7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.95">
+      <c r="O7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.76556776556776551</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.23443223443223443</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.95">
       <c r="A8">
         <v>7</v>
       </c>
@@ -792,7 +9201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.95">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.95">
       <c r="A9">
         <v>8</v>
       </c>
@@ -833,7 +9242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.95">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.95">
       <c r="A10">
         <v>9</v>
       </c>
@@ -874,7 +9283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.95">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.95">
       <c r="A11">
         <v>10</v>
       </c>
@@ -915,7 +9324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.95">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.95">
       <c r="A12">
         <v>11</v>
       </c>
@@ -956,7 +9365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.95">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.95">
       <c r="A13">
         <v>12</v>
       </c>
@@ -997,7 +9406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.95">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.95">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1038,7 +9447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.95">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.95">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1079,7 +9488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.95">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.95">
       <c r="A16">
         <v>15</v>
       </c>
@@ -22894,7 +31303,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>